--- a/3D analysis/Data_1_joint/40deg/Test40deg.xlsx
+++ b/3D analysis/Data_1_joint/40deg/Test40deg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anselme\Documents\GitHub\soft_robot_manipulator\3D analysis\Data_1_joint\40deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664CC424-9DD2-419E-B107-A92FD1593831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6508B9-C0D8-465A-81BF-968D6444C965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="5955" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId7"/>
-    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -11282,6 +11282,7 @@
         <c:axId val="1846432624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17818,15 +17819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26481,177 +26482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C76F14C-FAF9-49A9-9796-A3E08F0EB2E9}" name="Tableau croisé dynamique14" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="T31:AY34" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="32">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Moyenne de longueur cm" fld="7" subtotal="average" baseField="1" baseItem="0"/>
-    <dataField name="Écartype de longueur cm" fld="7" subtotal="stdDev" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E55786B-2E11-4695-A46A-29A366A7613C}" name="Tableau croisé dynamique3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E55786B-2E11-4695-A46A-29A366A7613C}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="T5:Y25" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -27095,8 +26926,178 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C76F14C-FAF9-49A9-9796-A3E08F0EB2E9}" name="Tableau croisé dynamique14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="T31:AY34" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="32">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Moyenne de longueur cm" fld="7" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Écartype de longueur cm" fld="7" subtotal="stdDev" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3621364-8EFD-47D8-A75D-947829DEA369}" name="Tableau croisé dynamique15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3621364-8EFD-47D8-A75D-947829DEA369}" name="Tableau croisé dynamique15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -27571,7 +27572,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6810F8AC-CE6B-4B49-B6FF-0C89630B1001}" name="Tableau croisé dynamique15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6810F8AC-CE6B-4B49-B6FF-0C89630B1001}" name="Tableau croisé dynamique15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -28046,7 +28047,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056A63FF-B9D0-4081-A3F5-2B29DA6C2F87}" name="Tableau croisé dynamique15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056A63FF-B9D0-4081-A3F5-2B29DA6C2F87}" name="Tableau croisé dynamique15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -28521,7 +28522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3880E5FA-4226-4020-9DD3-3F50F0E253DB}" name="Tableau croisé dynamique15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3880E5FA-4226-4020-9DD3-3F50F0E253DB}" name="Tableau croisé dynamique15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -28996,7 +28997,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F23CF0F-D60F-4A17-9798-9A2D4AB34A64}" name="Tableau croisé dynamique15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F23CF0F-D60F-4A17-9798-9A2D4AB34A64}" name="Tableau croisé dynamique15" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AF6" firstHeaderRow="1" firstDataRow="3" firstDataCol="0"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -29769,7 +29770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:TR301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
@@ -43177,7 +43178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3FAC93-FA63-49B4-8D2B-F86519C46C12}">
   <dimension ref="A3:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -43639,7 +43640,7 @@
   <dimension ref="A3:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
